--- a/F3SPF_LOG SHEET_BBWM_180523.xlsx
+++ b/F3SPF_LOG SHEET_BBWM_180523.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5da0e0537f071bc4/Documents/GitHub/Fluoro-Package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\OneDrive\Documents\GitHub\Fluoro-Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="153">
   <si>
     <t>Name of Raw EEM</t>
   </si>
@@ -216,6 +216,273 @@
   </si>
   <si>
     <t>b18140xc6</t>
+  </si>
+  <si>
+    <t>harv</t>
+  </si>
+  <si>
+    <t>harvc1</t>
+  </si>
+  <si>
+    <t>harvc2</t>
+  </si>
+  <si>
+    <t>harvc3</t>
+  </si>
+  <si>
+    <t>harvc4</t>
+  </si>
+  <si>
+    <t>harvc5</t>
+  </si>
+  <si>
+    <t>harvc6</t>
+  </si>
+  <si>
+    <t>harvcomb</t>
+  </si>
+  <si>
+    <t>harvcomb, smplhldr</t>
+  </si>
+  <si>
+    <t>harvcomb, naco3</t>
+  </si>
+  <si>
+    <t>harvcomb, naco3, smplhldr</t>
+  </si>
+  <si>
+    <t>harv2x</t>
+  </si>
+  <si>
+    <t>harv5x</t>
+  </si>
+  <si>
+    <t>harv10x</t>
+  </si>
+  <si>
+    <t>harv2xc1</t>
+  </si>
+  <si>
+    <t>harv5xc1</t>
+  </si>
+  <si>
+    <t>harv10xc1</t>
+  </si>
+  <si>
+    <t>harv2xc2</t>
+  </si>
+  <si>
+    <t>harv2xc3</t>
+  </si>
+  <si>
+    <t>harv2xc4</t>
+  </si>
+  <si>
+    <t>harv2xc5</t>
+  </si>
+  <si>
+    <t>harv2xc6</t>
+  </si>
+  <si>
+    <t>harv5xc2</t>
+  </si>
+  <si>
+    <t>harv5xc3</t>
+  </si>
+  <si>
+    <t>harv5xc4</t>
+  </si>
+  <si>
+    <t>harv5xc5</t>
+  </si>
+  <si>
+    <t>harv5xc6</t>
+  </si>
+  <si>
+    <t>harv10xc2</t>
+  </si>
+  <si>
+    <t>harv10xc3</t>
+  </si>
+  <si>
+    <t>harv10xc4</t>
+  </si>
+  <si>
+    <t>harv10xc5</t>
+  </si>
+  <si>
+    <t>harv10xc6</t>
+  </si>
+  <si>
+    <t>konz</t>
+  </si>
+  <si>
+    <t>konzcomb</t>
+  </si>
+  <si>
+    <t>konzcomb, smplhldr</t>
+  </si>
+  <si>
+    <t>konzcomb, naco3</t>
+  </si>
+  <si>
+    <t>konzcomb, naco3, smplhldr</t>
+  </si>
+  <si>
+    <t>konz5x</t>
+  </si>
+  <si>
+    <t>konz10x</t>
+  </si>
+  <si>
+    <t>konz20x</t>
+  </si>
+  <si>
+    <t>konzc1</t>
+  </si>
+  <si>
+    <t>konz5xc5</t>
+  </si>
+  <si>
+    <t>konzc2</t>
+  </si>
+  <si>
+    <t>konzc3</t>
+  </si>
+  <si>
+    <t>konzc4</t>
+  </si>
+  <si>
+    <t>konzc5</t>
+  </si>
+  <si>
+    <t>konzc6</t>
+  </si>
+  <si>
+    <t>konz5xc1</t>
+  </si>
+  <si>
+    <t>konz10xc1</t>
+  </si>
+  <si>
+    <t>konz5xc2</t>
+  </si>
+  <si>
+    <t>konz5xc3</t>
+  </si>
+  <si>
+    <t>konz5xc4</t>
+  </si>
+  <si>
+    <t>konz5xc6</t>
+  </si>
+  <si>
+    <t>konz10xc2</t>
+  </si>
+  <si>
+    <t>konz10xc3</t>
+  </si>
+  <si>
+    <t>konz10xc4</t>
+  </si>
+  <si>
+    <t>konz10xc5</t>
+  </si>
+  <si>
+    <t>konz10xc6</t>
+  </si>
+  <si>
+    <t>konz20xc1</t>
+  </si>
+  <si>
+    <t>konz20xc2</t>
+  </si>
+  <si>
+    <t>konz20xc3</t>
+  </si>
+  <si>
+    <t>konz20xc4</t>
+  </si>
+  <si>
+    <t>konz20xc5</t>
+  </si>
+  <si>
+    <t>konz20xc6</t>
+  </si>
+  <si>
+    <t>ornl</t>
+  </si>
+  <si>
+    <t>ornlcomb</t>
+  </si>
+  <si>
+    <t>ornlcomb, smplhldr</t>
+  </si>
+  <si>
+    <t>ornlcomb, naco3</t>
+  </si>
+  <si>
+    <t>ornlcomb, naco3, smplhldr</t>
+  </si>
+  <si>
+    <t>ornl2x</t>
+  </si>
+  <si>
+    <t>ornl4x</t>
+  </si>
+  <si>
+    <t>ornlc1</t>
+  </si>
+  <si>
+    <t>ornl2xc2</t>
+  </si>
+  <si>
+    <t>ornl4xc4</t>
+  </si>
+  <si>
+    <t>ornlc2</t>
+  </si>
+  <si>
+    <t>ornlc3</t>
+  </si>
+  <si>
+    <t>ornlc4</t>
+  </si>
+  <si>
+    <t>ornlc5</t>
+  </si>
+  <si>
+    <t>ornlc6</t>
+  </si>
+  <si>
+    <t>ornl2xc1</t>
+  </si>
+  <si>
+    <t>ornl4xc1</t>
+  </si>
+  <si>
+    <t>ornl2xc3</t>
+  </si>
+  <si>
+    <t>ornl2xc4</t>
+  </si>
+  <si>
+    <t>ornl2xc5</t>
+  </si>
+  <si>
+    <t>ornl2xc6</t>
+  </si>
+  <si>
+    <t>ornl4xc2</t>
+  </si>
+  <si>
+    <t>ornl4xc3</t>
+  </si>
+  <si>
+    <t>ornl4xc5</t>
+  </si>
+  <si>
+    <t>ornl4xc6</t>
   </si>
 </sst>
 </file>
@@ -567,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D133" sqref="A110:D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,6 +1454,930 @@
         <v>40</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" t="s">
+        <v>147</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" t="s">
+        <v>137</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" t="s">
+        <v>131</v>
+      </c>
+      <c r="C108" t="s">
+        <v>151</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" t="s">
+        <v>152</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/F3SPF_LOG SHEET_BBWM_180523.xlsx
+++ b/F3SPF_LOG SHEET_BBWM_180523.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="185">
   <si>
     <t>Name of Raw EEM</t>
   </si>
@@ -483,6 +483,102 @@
   </si>
   <si>
     <t>ornl4xc6</t>
+  </si>
+  <si>
+    <t>sjer</t>
+  </si>
+  <si>
+    <t>sjercomb</t>
+  </si>
+  <si>
+    <t>sjercomb, naco3</t>
+  </si>
+  <si>
+    <t>sjercomb, smplhldr</t>
+  </si>
+  <si>
+    <t>sjercomb, naco3, smplhldr</t>
+  </si>
+  <si>
+    <t>sjer5x</t>
+  </si>
+  <si>
+    <t>sjer10x</t>
+  </si>
+  <si>
+    <t>sjer20x</t>
+  </si>
+  <si>
+    <t>sjerc1</t>
+  </si>
+  <si>
+    <t>sjer5xc1</t>
+  </si>
+  <si>
+    <t>sjer10xc1</t>
+  </si>
+  <si>
+    <t>sjer20xc1</t>
+  </si>
+  <si>
+    <t>sjerc2</t>
+  </si>
+  <si>
+    <t>sjerc3</t>
+  </si>
+  <si>
+    <t>sjerc4</t>
+  </si>
+  <si>
+    <t>sjerc5</t>
+  </si>
+  <si>
+    <t>sjerc6</t>
+  </si>
+  <si>
+    <t>sjer5xc2</t>
+  </si>
+  <si>
+    <t>sjer5xc3</t>
+  </si>
+  <si>
+    <t>sjer5xc4</t>
+  </si>
+  <si>
+    <t>sjer5xc5</t>
+  </si>
+  <si>
+    <t>sjer5xc6</t>
+  </si>
+  <si>
+    <t>sjer20xc2</t>
+  </si>
+  <si>
+    <t>sjer10xc2</t>
+  </si>
+  <si>
+    <t>sjer10xc3</t>
+  </si>
+  <si>
+    <t>sjer10xc4</t>
+  </si>
+  <si>
+    <t>sjer10xc5</t>
+  </si>
+  <si>
+    <t>sjer10xc6</t>
+  </si>
+  <si>
+    <t>sjer20xc3</t>
+  </si>
+  <si>
+    <t>sjer20xc4</t>
+  </si>
+  <si>
+    <t>sjer20xc5</t>
+  </si>
+  <si>
+    <t>sjer20xc6</t>
   </si>
 </sst>
 </file>
@@ -834,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D133" sqref="A110:D133"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110:D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2378,6 +2474,342 @@
         <v>4</v>
       </c>
     </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>161</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" t="s">
+        <v>167</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" t="s">
+        <v>154</v>
+      </c>
+      <c r="C118" t="s">
+        <v>171</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" t="s">
+        <v>172</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" t="s">
+        <v>174</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>163</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>176</v>
+      </c>
+      <c r="D123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>154</v>
+      </c>
+      <c r="C124" t="s">
+        <v>177</v>
+      </c>
+      <c r="D124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" t="s">
+        <v>156</v>
+      </c>
+      <c r="C125" t="s">
+        <v>178</v>
+      </c>
+      <c r="D125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" t="s">
+        <v>179</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>175</v>
+      </c>
+      <c r="D129">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131" t="s">
+        <v>182</v>
+      </c>
+      <c r="D131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" t="s">
+        <v>155</v>
+      </c>
+      <c r="C132" t="s">
+        <v>183</v>
+      </c>
+      <c r="D132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" t="s">
+        <v>184</v>
+      </c>
+      <c r="D133">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
